--- a/src/models/baseline_lr_model_results.xlsx
+++ b/src/models/baseline_lr_model_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCL_CS\Y3\COMP0029 Individual Project\Individual Project (90%)\UCL-FYP\src\baseline_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCL_CS\Y3\COMP0029 Individual Project\Individual Project (90%)\UCL-FYP\src\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FCB3B4-6586-4C95-B164-1B6AFB1535F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9DF908-F050-410D-BB6D-7C4C2346C7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18930" yWindow="3420" windowWidth="14295" windowHeight="10875" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
+    <workbookView xWindow="-25395" yWindow="1995" windowWidth="14295" windowHeight="10875" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,13 +579,13 @@
         <v>8</v>
       </c>
       <c r="D7" s="4">
-        <v>72.5</v>
+        <v>80</v>
       </c>
       <c r="E7" s="4">
-        <v>92.5</v>
+        <v>80</v>
       </c>
       <c r="F7" s="4">
-        <v>92.5</v>
+        <v>80</v>
       </c>
       <c r="G7" s="4">
         <v>75</v>
@@ -594,16 +594,16 @@
         <v>67.5</v>
       </c>
       <c r="I7" s="4">
-        <v>82.5</v>
+        <v>77.5</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="4">
-        <v>95</v>
+        <v>87.5</v>
       </c>
       <c r="L7" s="4">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.25">

--- a/src/models/baseline_lr_model_results.xlsx
+++ b/src/models/baseline_lr_model_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCL_CS\Y3\COMP0029 Individual Project\Individual Project (90%)\UCL-FYP\src\baseline_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCL_CS\Y3\COMP0029 Individual Project\Individual Project (90%)\UCL-FYP\src\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8A9D58-B898-4E01-8FE9-6C44EDFE5800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C653A7-C337-4D50-8EED-61E00BB2A04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15585" yWindow="2970" windowWidth="14295" windowHeight="10875" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
+    <workbookView xWindow="4155" yWindow="1980" windowWidth="15960" windowHeight="10875" xr2:uid="{449CD272-F864-49D6-AEEE-8295C86900CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Tactile</t>
   </si>
@@ -53,28 +53,49 @@
     <t>CNN</t>
   </si>
   <si>
-    <t>Bottle</t>
-  </si>
-  <si>
     <t>Baseline Approach - Logistic Regression Model</t>
   </si>
   <si>
     <t>Object/Data Type</t>
   </si>
   <si>
-    <t>Rectangular block</t>
-  </si>
-  <si>
-    <t>Mug</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Epochs=400, samples per class=400</t>
-  </si>
-  <si>
-    <t>PCA (k=3)</t>
+    <t>Epochs=400, samples per class=200</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>PCA (k=5)</t>
+  </si>
+  <si>
+    <t>Tactile + PCA</t>
+  </si>
+  <si>
+    <t>Both + PCA</t>
+  </si>
+  <si>
+    <t>CNN + PCA</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>PCA only (on entire ds)</t>
+  </si>
+  <si>
+    <t>400x160x240x4</t>
+  </si>
+  <si>
+    <t>400x64x10x15</t>
+  </si>
+  <si>
+    <t>Dimensions per example</t>
   </si>
 </sst>
 </file>
@@ -503,28 +524,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B73A440-1403-46F3-8C0D-8F0E6F259824}">
-  <dimension ref="C2:L9"/>
+  <dimension ref="C2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="12" max="13" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="5" t="s">
         <v>3</v>
@@ -532,7 +555,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
@@ -540,11 +563,12 @@
         <v>4</v>
       </c>
       <c r="K5" s="6"/>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>1</v>
@@ -565,116 +589,174 @@
         <v>2</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="4">
-        <v>77.5</v>
+        <v>51.25</v>
       </c>
       <c r="E7" s="4">
-        <v>93.75</v>
+        <v>85</v>
       </c>
       <c r="F7" s="4">
-        <v>93.75</v>
+        <v>85</v>
       </c>
       <c r="G7" s="4">
+        <v>51.25</v>
+      </c>
+      <c r="H7" s="4">
+        <v>75</v>
+      </c>
+      <c r="I7" s="4">
+        <v>75</v>
+      </c>
+      <c r="J7" s="4">
+        <v>82.5</v>
+      </c>
+      <c r="K7" s="4">
         <v>78.75</v>
       </c>
-      <c r="H7" s="4">
+      <c r="L7" s="4">
+        <v>76.25</v>
+      </c>
+      <c r="M7" s="4">
+        <v>76.25</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>51.25</v>
+      </c>
+      <c r="E11">
+        <v>85</v>
+      </c>
+      <c r="F11">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <f>400*160*240*4</f>
+        <v>61440000</v>
+      </c>
+      <c r="I11">
+        <f>H11/400</f>
+        <v>153600</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>51.25</v>
+      </c>
+      <c r="E12">
+        <v>75</v>
+      </c>
+      <c r="F12">
+        <v>75</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13">
         <v>82.5</v>
       </c>
-      <c r="I7" s="4">
-        <v>88.75</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="4">
-        <v>91.25</v>
-      </c>
-      <c r="L7" s="4">
-        <v>91.25</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="1" t="s">
+      <c r="F13">
+        <v>78.75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <f>400*64*10*15</f>
+        <v>3840000</v>
+      </c>
+      <c r="I13">
+        <f>H13/400</f>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>76.25</v>
+      </c>
+      <c r="F14">
+        <v>76.25</v>
+      </c>
+      <c r="G14">
         <v>5</v>
       </c>
-      <c r="D8" s="4">
-        <v>80.62</v>
-      </c>
-      <c r="E8" s="4">
-        <v>91.25</v>
-      </c>
-      <c r="F8" s="4">
-        <v>91.25</v>
-      </c>
-      <c r="G8" s="4">
-        <v>70.62</v>
-      </c>
-      <c r="H8" s="4">
-        <v>71.25</v>
-      </c>
-      <c r="I8" s="4">
-        <v>89.38</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4">
-        <v>88.75</v>
-      </c>
-      <c r="L8" s="4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4">
-        <v>75.62</v>
-      </c>
-      <c r="E9" s="4">
-        <v>98.12</v>
-      </c>
-      <c r="F9" s="4">
-        <v>98.12</v>
-      </c>
-      <c r="G9" s="4">
-        <v>61.88</v>
-      </c>
-      <c r="H9" s="4">
-        <v>70</v>
-      </c>
-      <c r="I9" s="4">
-        <v>95.62</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="4">
-        <v>96.25</v>
-      </c>
-      <c r="L9" s="4">
-        <v>96.88</v>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
